--- a/data/trans_dic/P36B_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,38; 31,5</t>
+          <t>23,51; 31,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,62; 46,25</t>
+          <t>36,9; 46,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,05; 40,59</t>
+          <t>31,07; 40,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,78; 73,45</t>
+          <t>65,22; 73,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,84; 40,41</t>
+          <t>29,33; 40,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,94; 59,59</t>
+          <t>47,93; 59,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,19; 46,16</t>
+          <t>35,37; 46,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,78</t>
+          <t>79,67; 85,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 33,57</t>
+          <t>26,92; 33,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43,08; 50,66</t>
+          <t>43,15; 50,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,98; 41,27</t>
+          <t>34,25; 41,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,49; 78,2</t>
+          <t>72,64; 78,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 24,71</t>
+          <t>16,16; 24,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,34; 41,26</t>
+          <t>31,35; 41,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,73; 35,52</t>
+          <t>25,76; 35,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,6; 76,86</t>
+          <t>67,64; 77,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,14; 33,89</t>
+          <t>24,13; 33,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,84; 55,64</t>
+          <t>44,0; 55,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,84; 41,28</t>
+          <t>30,92; 40,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,91; 81,16</t>
+          <t>74,15; 81,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,21; 27,87</t>
+          <t>21,71; 28,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,59; 46,22</t>
+          <t>38,41; 46,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,5; 36,91</t>
+          <t>29,85; 36,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,71; 78,09</t>
+          <t>72,12; 77,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,98; 27,18</t>
+          <t>20,08; 27,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,97; 41,44</t>
+          <t>33,8; 41,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,74; 29,31</t>
+          <t>21,57; 29,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,9; 92,98</t>
+          <t>70,09; 94,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,38; 41,17</t>
+          <t>26,76; 41,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,43; 56,86</t>
+          <t>44,0; 56,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 45,79</t>
+          <t>29,07; 44,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,33; 85,73</t>
+          <t>75,87; 85,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 29,71</t>
+          <t>22,62; 29,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,62; 44,25</t>
+          <t>37,98; 44,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 31,58</t>
+          <t>24,5; 31,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,1; 92,58</t>
+          <t>72,86; 92,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,24; 24,06</t>
+          <t>19,23; 23,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,64; 38,55</t>
+          <t>32,67; 38,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,5</t>
+          <t>23,16; 28,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,9; 73,09</t>
+          <t>66,74; 73,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,58; 32,23</t>
+          <t>25,3; 32,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,37; 48,12</t>
+          <t>40,93; 48,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,5; 37,83</t>
+          <t>30,89; 37,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,61; 89,31</t>
+          <t>72,56; 89,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,32; 26,26</t>
+          <t>22,13; 26,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,69; 41,34</t>
+          <t>36,68; 41,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,34; 31,33</t>
+          <t>27,49; 31,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,21; 82,62</t>
+          <t>70,89; 82,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 20,66</t>
+          <t>12,48; 20,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,06; 41,9</t>
+          <t>33,33; 41,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,49; 30,55</t>
+          <t>23,28; 30,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,15; 70,46</t>
+          <t>61,74; 70,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,98; 28,18</t>
+          <t>21,37; 28,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,48; 50,02</t>
+          <t>42,08; 49,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,64; 37,86</t>
+          <t>31,0; 38,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,59; 81,05</t>
+          <t>70,74; 81,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,92; 24,53</t>
+          <t>19,0; 24,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,58; 45,32</t>
+          <t>39,75; 45,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,17; 33,39</t>
+          <t>28,33; 33,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>68,35; 76,61</t>
+          <t>68,57; 77,13</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,16</t>
+          <t>7,2; 14,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,94; 27,08</t>
+          <t>16,11; 26,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,35; 30,63</t>
+          <t>19,55; 30,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>56,24; 76,23</t>
+          <t>55,67; 76,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,55; 28,46</t>
+          <t>23,75; 28,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,74; 46,57</t>
+          <t>40,88; 46,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,72; 37,85</t>
+          <t>32,12; 37,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>71,32; 78,0</t>
+          <t>71,68; 78,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,0; 25,29</t>
+          <t>20,94; 25,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,48; 42,0</t>
+          <t>36,56; 41,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,38; 35,53</t>
+          <t>30,17; 35,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>69,1; 76,07</t>
+          <t>69,15; 76,2</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,6; 22,39</t>
+          <t>19,51; 22,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,32; 37,7</t>
+          <t>34,22; 37,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,15; 29,4</t>
+          <t>26,17; 29,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>69,02; 78,37</t>
+          <t>69,03; 77,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,33</t>
+          <t>26,37; 29,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,5; 48,14</t>
+          <t>44,56; 48,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,69; 37,02</t>
+          <t>33,78; 37,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>75,66; 81,65</t>
+          <t>75,57; 81,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,42; 25,51</t>
+          <t>23,39; 25,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39,95; 42,38</t>
+          <t>39,96; 42,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,42; 32,69</t>
+          <t>30,55; 32,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>72,89; 78,5</t>
+          <t>73,08; 78,38</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume verduras y hortalizas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>128470</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>181403</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>153739</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>349576</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>106650</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>167848</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>140069</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>371403</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>235121</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>349251</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>293808</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>720979</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>111173; 149269</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>160565; 203097</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>133318; 173083</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>329514; 371326</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>89952; 124491</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>149785; 185914</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>122411; 160322</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>356497; 384589</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>209880; 262508</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>322607; 377589</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>265494; 321950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>692043; 746047</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73838</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>151498</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>115118</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>329252</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>107197</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>166784</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>133332</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>296330</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>181035</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>318282</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>248450</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>625583</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59303; 90859</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>130977; 174772</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>96891; 134338</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>305417; 348280</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>89742; 126029</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>147463; 185962</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>113763; 150134</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>283055; 310860</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>160367; 206870</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>289188; 347877</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>222096; 274937</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>600953; 649215</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>128817</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>237136</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>132912</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>545743</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56402</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>129380</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>60653</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>135596</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>185218</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>366515</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>193564</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>681339</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>108934; 150438</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>212764; 263002</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>112581; 152420</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>468368; 630395</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44895; 68977</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>114445; 146538</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48013; 74142</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>126643; 143390</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>160613; 210040</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>337824; 396010</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>168320; 218037</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>608493; 773683</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>266630</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>411535</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>294026</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>726716</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>204577</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>338323</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>281434</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>774255</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>471208</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>749858</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>575460</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1500970</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>238193; 296492</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>377638; 445846</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>263663; 321790</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>689512; 759050</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>180740; 229603</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>312186; 367343</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>254515; 312224</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>709334; 873904</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>432173; 510600</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>703800; 792812</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>539440; 620215</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1425281; 1667832</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>56839</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>191256</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>164166</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>313175</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>141338</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>349071</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>252724</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>628708</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>198177</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>540327</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>416889</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>941883</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43739; 71798</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>169839; 212426</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>143541; 186997</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>292680; 335083</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>121333; 164023</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>319997; 376324</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>228173; 280894</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>594186; 681580</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>174431; 226402</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>504767; 575454</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>383253; 450961</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>901045; 1013471</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>31198</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>55482</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>70649</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>325198</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>483238</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>375662</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>569662</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>356396</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>538720</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>446310</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>730294</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>21475; 42825</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42989; 69716</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>55926; 85830</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>133881; 183116</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>296564; 356080</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>453463; 516686</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>345485; 407467</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>545010; 594650</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>323948; 390809</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>503120; 575853</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>410795; 486687</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>692011; 762621</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4050</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2662</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6418</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>685792</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1228309</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>930608</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2425095</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>941362</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1634644</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1243873</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2775954</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1627155</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2862953</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2174481</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>5201048</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>637892; 732765</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1168470; 1285692</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>881514; 991723</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2328178; 2621699</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>890479; 993479</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1577641; 1704243</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1187410; 1304452</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2700637; 2926322</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1554754; 1699104</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2779503; 2948431</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2103032; 2260192</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5076821; 5444511</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36B_3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
